--- a/src/main/resources/templates/certificate_template.xlsx
+++ b/src/main/resources/templates/certificate_template.xlsx
@@ -41,11 +41,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -101,9 +102,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,8 +454,8 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="2:2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -458,7 +463,7 @@
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="5" width="31.5" customWidth="1"/>
+    <col min="4" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="38.375" customWidth="1"/>
@@ -491,10 +496,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">

--- a/src/main/resources/templates/certificate_template.xlsx
+++ b/src/main/resources/templates/certificate_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -41,19 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -61,19 +58,355 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,49 +414,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -173,71 +778,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,17 +1054,16 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -467,7 +1071,7 @@
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="31.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="38.375" customWidth="1"/>
@@ -491,28 +1095,28 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState caseSensitive="0" columnSort="0" ref="B2:W10">
-    <sortCondition descending="0" ref="D2:D10"/>
+  <sortState ref="B2:W10">
+    <sortCondition ref="D2:D10"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -521,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -538,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/resources/templates/certificate_template.xlsx
+++ b/src/main/resources/templates/certificate_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28455" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>编号</t>
   </si>
@@ -35,16 +35,22 @@
   <si>
     <t>发证单位</t>
   </si>
+  <si>
+    <t>证书类别</t>
+  </si>
+  <si>
+    <t>证书信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -61,6 +67,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -84,37 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -145,6 +158,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,42 +212,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -221,13 +227,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,36 +305,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,19 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,61 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,26 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,6 +498,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,143 +538,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1060,20 +1070,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G1" sqref="G$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="38.375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="12" width="9.5" customWidth="1"/>
@@ -1094,24 +1105,30 @@
     <col min="27" max="27" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
